--- a/java/Linux/Docker.xlsx
+++ b/java/Linux/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="335">
   <si>
     <t>Docker官网</t>
   </si>
@@ -132,17 +132,11 @@
 docker exec -it {id} /bin/bash   进入正在运行的容器
 cat /etc/redhat-release   检测Centos版本信息  CentOS Linux release 8.4.2105
 cat /etc/os-release   系统版本
-uname -r   系统内核5.10 （容器里或主机都能用）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+uname -r   系统内核5.10 （容器里或主机都能用）
+exit   退出容器，进行下面操作</t>
+  </si>
+  <si>
+    <r>
       <t>卸载旧版本(</t>
     </r>
     <r>
@@ -235,10 +229,16 @@
     <t>systemctl start docker</t>
   </si>
   <si>
-    <t>检测启动成功了没</t>
-  </si>
-  <si>
-    <t>docker version</t>
+    <t>查看状态</t>
+  </si>
+  <si>
+    <t>systemctl status docker</t>
+  </si>
+  <si>
+    <t>查看版本信息，检测启动成功了没</t>
+  </si>
+  <si>
+    <t>docker version  或者  docker -v</t>
   </si>
   <si>
     <t>hello-world 通过运行映像来验证 Docker 引擎是否已正确安装
@@ -305,9 +305,6 @@
 EOF
 sudo systemctl daemon-reload
 sudo systemctl restart docker</t>
-  </si>
-  <si>
-    <t>版本信息</t>
   </si>
   <si>
     <t>docker系统信息</t>
@@ -1404,6 +1401,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">启动镜像
 </t>
     </r>
@@ -1490,6 +1494,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090
 </t>
     </r>
@@ -1507,6 +1519,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090/test
 </t>
     </r>
@@ -1636,6 +1656,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">docker exec -it {id} ip addr     </t>
     </r>
     <r>
@@ -1656,6 +1683,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>主机ping</t>
     </r>
     <r>
@@ -1705,6 +1739,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">docker run -d -P --name tomcat09 </t>
     </r>
     <r>
@@ -2589,7 +2630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2606,9 +2647,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2631,9 +2669,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2708,13 +2743,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1581785</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>895985</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2732,7 +2767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="10614660"/>
+          <a:off x="7620" y="10980420"/>
           <a:ext cx="3684905" cy="1768475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2745,15 +2780,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1897380</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3825240</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:colOff>2872740</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2770,7 +2805,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008120" y="10645140"/>
+          <a:off x="3741420" y="11003280"/>
           <a:ext cx="1927860" cy="1761490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2783,15 +2818,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1283335</xdr:colOff>
+      <xdr:colOff>1313815</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2808,7 +2843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="739140"/>
+          <a:off x="38100" y="754380"/>
           <a:ext cx="1275715" cy="1044575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2820,16 +2855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1432560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1889125</xdr:colOff>
+      <xdr:colOff>502285</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2846,7 +2881,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="769620"/>
+          <a:off x="1432560" y="731520"/>
           <a:ext cx="1866265" cy="1023620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3493,15 +3528,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3514,7 +3549,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3530,7 +3565,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3538,41 +3573,41 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" ht="86.4" spans="1:2">
-      <c r="A11" s="16" t="s">
+    <row r="11" ht="100.8" spans="1:2">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="115.2" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3585,24 +3620,24 @@
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3615,7 +3650,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -3630,36 +3665,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="57.6" spans="1:2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="21" ht="57.6" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="72" spans="1:2">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="158.4" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23" ht="72" spans="1:2">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="158.4" spans="1:2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3696,109 +3739,109 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>149</v>
+        <v>66</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="11" s="15" customFormat="1"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="11" s="13" customFormat="1"/>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="5" t="s">
-        <v>100</v>
+      <c r="B13" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="5" t="s">
         <v>155</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>160</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3824,86 +3867,86 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>165</v>
+      <c r="B4" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>167</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:2">
-      <c r="A7" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>170</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>174</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="10" t="s">
-        <v>178</v>
+      <c r="B13" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3932,54 +3975,54 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>180</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>183</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4008,185 +4051,185 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>188</v>
+      <c r="B4" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" ht="172.8" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
-        <v>191</v>
+      <c r="B6" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5" t="s">
         <v>195</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12" t="s">
-        <v>196</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="5" t="s">
-        <v>198</v>
+      <c r="B12" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4218,104 +4261,104 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="2:2">
-      <c r="B2" s="5" t="s">
-        <v>226</v>
+      <c r="B2" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" ht="360" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>229</v>
+      <c r="A4" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" ht="43.2" spans="2:2">
-      <c r="B7" s="5" t="s">
-        <v>233</v>
+      <c r="B7" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" ht="100.8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>235</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="9" ht="201.6" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="10" ht="273.6" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>239</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="11" ht="43.2" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>241</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
-        <v>242</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>243</v>
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="5" t="s">
         <v>245</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4347,67 +4390,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>250</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>252</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:2">
-      <c r="A23" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4438,193 +4481,193 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>260</v>
+      <c r="A3" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>263</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
-        <v>264</v>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>265</v>
+      <c r="A7" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B16" s="7" t="s">
         <v>277</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B24" s="5" t="s">
         <v>285</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4653,101 +4696,101 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" ht="230.4" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:2">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>308</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4761,7 +4804,7 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4773,86 +4816,86 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4871,10 +4914,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4885,114 +4928,106 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:2">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" ht="43.2" spans="1:2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" ht="57.6" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="17" ht="57.6" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://docs.docker.com/engine/reference/commandline/images/#examples" tooltip="https://docs.docker.com/engine/reference/commandline/images/#examples"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://docs.docker.com/engine/reference/commandline/images/#examples" tooltip="https://docs.docker.com/engine/reference/commandline/images/#examples"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5017,90 +5052,90 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="10" t="s">
         <v>62</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:2">
       <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="5" t="s">
         <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="5" t="s">
         <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:2">
       <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" ht="100.8" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5126,72 +5161,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>81</v>
+      <c r="A5" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5220,80 +5255,80 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="5" t="s">
         <v>99</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>103</v>
+      <c r="A8" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5322,97 +5357,97 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>116</v>
+      <c r="A7" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>122</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5440,32 +5475,32 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>125</v>
+      <c r="A2" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5491,35 +5526,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
-        <v>135</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5551,21 +5586,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>139</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="10" t="s">
-        <v>140</v>
+      <c r="B4" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Docker.xlsx
+++ b/java/Linux/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>卸载旧版本(</t>
     </r>
     <r>
@@ -4916,7 +4923,7 @@
   <sheetPr/>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5040,8 +5047,8 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/java/Linux/Docker.xlsx
+++ b/java/Linux/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="345">
   <si>
     <t>Docker官网</t>
   </si>
@@ -557,9 +557,31 @@
     <t>删除容器</t>
   </si>
   <si>
-    <t>docker ps -a    获取下面需要的id
-docker rm {id}   删除指定的容器
+    <r>
+      <t xml:space="preserve">docker ps -a    获取下面需要的id
+docker rm 名字或{id}   删除指定的容器  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能解决：容器名已被使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 docker rm -f $(docker ps -aq)    删除所有的容器</t>
+    </r>
   </si>
   <si>
     <t>启动和停止容器</t>
@@ -609,7 +631,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -715,6 +737,19 @@
   </si>
   <si>
     <r>
+      <t>浏览器访问（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机用的是公网IP</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -722,7 +757,62 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>浏览器访问（</t>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>http://39.108.174.145:3344</t>
+  </si>
+  <si>
+    <t>docker exec -it {id} /bin/bash</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>Nginx三个重要目录</t>
+  </si>
+  <si>
+    <r>
+      <t>前端vue项目打包存放目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  cd /usr/share/nginx/html
+nginx日志目录    cd /var/log/nginx
+nginx配置文件目录   cd /etc/nginx/nginx.conf</t>
+    </r>
+  </si>
+  <si>
+    <t>主机新建三个目录</t>
+  </si>
+  <si>
+    <t>mkdir -p /home/nginx/html /home/nginx/logs /home/nginx/conf</t>
+  </si>
+  <si>
+    <t>从容器内拷贝文件到主机</t>
+  </si>
+  <si>
+    <t>docker cp {id}:/etc/nginx/nginx.conf /home/nginx/conf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">启动nginx
+-v 数据卷挂载
+</t>
     </r>
     <r>
       <rPr>
@@ -732,30 +822,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>主机用的是公网IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>http://39.108.174.145:3344</t>
-  </si>
-  <si>
-    <t>docker exec -it {id} /bin/bash</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>cd /etc/nginx</t>
+      <t>容器映射到主机</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -d -p 7777:80 --name nginx-web -v /home/nginx/html:/usr/share/nginx/html -v /home/nginx/conf/nginx.conf:/etc/nginx/nginx.conf -v /home/nginx/logs:/var/log/nginx nginx</t>
+  </si>
+  <si>
+    <t>浏览器访问（主机用的是公网IP）</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:7777</t>
+  </si>
+  <si>
+    <t>方式一</t>
   </si>
   <si>
     <t>官方使用，运行tomcat</t>
@@ -768,6 +848,9 @@
   </si>
   <si>
     <t>docker ps -a</t>
+  </si>
+  <si>
+    <t>方式二</t>
   </si>
   <si>
     <t>下载tomcat</t>
@@ -818,10 +901,49 @@
     <t>http://39.108.174.145:3355</t>
   </si>
   <si>
-    <t>cd webapps    找不到，原因最小的镜像</t>
-  </si>
-  <si>
-    <t>复制，解决404</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cd webapps    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找不到，原因最小的镜像，所有404</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">复制，解决404
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以放Vue项目</t>
+    </r>
   </si>
   <si>
     <t>cd ..
@@ -969,12 +1091,53 @@
     <t>docker pull mysql:5.7</t>
   </si>
   <si>
-    <t>运行
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">运行
 -d 后台运行
--p 端口映射 大写P是随机端口
+-p 端口映射 大写P是随机端口  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接要用映射端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 -v 数据卷挂载
 -e 环境配置，这里配置密码
---name 容器名字</t>
+--name 容器名字
+Linux是远程，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机是阿里云的公网ip：39.108.174.145
+默认用户名是root，密码这里设置了</t>
+    </r>
   </si>
   <si>
     <t>docker run -d -p 3310:3306 -v /home/mysql/conf:/etc/mysql/conf.d -v /home/mysql/data:/var/lib/mysql -e MYSQL_ROOT_PASSWORD=123456 --name mysql01 mysql:5.7</t>
@@ -1497,9 +1660,6 @@
 &lt;/html&gt;</t>
   </si>
   <si>
-    <t>浏览器访问（主机用的是公网IP）</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2008,7 +2168,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2174,8 +2334,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2197,6 +2364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2495,10 +2668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2507,16 +2680,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2528,10 +2701,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2552,28 +2725,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2582,19 +2755,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2606,38 +2776,41 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2678,6 +2851,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2902,6 +3081,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ali31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="739140"/>
+          <a:ext cx="3484245" cy="2839085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3603,7 +3825,7 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11" ht="100.8" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3734,13 +3956,13 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3749,7 +3971,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3757,7 +3979,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -3765,28 +3987,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>144</v>
+    <row r="5" ht="115.2" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
@@ -3794,7 +4016,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -3803,10 +4025,10 @@
     <row r="11" s="13" customFormat="1"/>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -3816,44 +4038,45 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3874,47 +4097,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -3924,36 +4147,36 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
       <c r="B13" s="9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3987,10 +4210,10 @@
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -4000,36 +4223,36 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4058,52 +4281,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" ht="172.8" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" s="11" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4113,15 +4336,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -4131,112 +4354,112 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4269,23 +4492,23 @@
   <sheetData>
     <row r="2" ht="43.2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" ht="360" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -4295,61 +4518,61 @@
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" ht="100.8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" ht="201.6" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" ht="273.6" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
@@ -4357,15 +4580,15 @@
         <v>74</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4609,7 @@
   <sheetPr/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4398,26 +4621,26 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -4427,37 +4650,37 @@
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4476,7 +4699,7 @@
   <sheetPr/>
   <dimension ref="A2:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -4488,15 +4711,15 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -4504,177 +4727,177 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4691,8 +4914,8 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4703,44 +4926,44 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" ht="230.4" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:2">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4750,54 +4973,54 @@
     </row>
     <row r="9" ht="28.8" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4812,7 +5035,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4823,47 +5046,47 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -4873,15 +5096,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4889,20 +5112,20 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4924,7 +5147,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5047,8 +5270,8 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5101,7 +5324,7 @@
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5248,10 +5471,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5333,14 +5556,53 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="12" ht="43.2" spans="1:2">
+      <c r="A12" t="s">
         <v>108</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" ht="57.6" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="http://39.108.174.145:3344" tooltip="http://39.108.174.145:3344"/>
+    <hyperlink ref="B17" r:id="rId2" display="http://39.108.174.145:7777"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5350,10 +5612,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5363,103 +5625,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" ht="43.2" spans="1:2">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>122</v>
+    <row r="13" spans="2:2">
+      <c r="B13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://39.108.174.145:3355" tooltip="http://39.108.174.145:3355"/>
+    <hyperlink ref="B9" r:id="rId1" display="http://39.108.174.145:3355" tooltip="http://39.108.174.145:3355"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5483,10 +5761,10 @@
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5496,10 +5774,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5507,7 +5785,7 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5533,35 +5811,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5593,21 +5871,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
       <c r="B4" s="9" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Docker.xlsx
+++ b/java/Linux/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="可视化面板" sheetId="7" r:id="rId8"/>
     <sheet name="容器数据卷" sheetId="8" r:id="rId9"/>
     <sheet name="mysql同步数据" sheetId="9" r:id="rId10"/>
-    <sheet name="Dockerfile" sheetId="10" r:id="rId11"/>
+    <sheet name="Dockerfile之centos" sheetId="10" r:id="rId11"/>
     <sheet name="数据卷容器同步" sheetId="11" r:id="rId12"/>
-    <sheet name="构建自己的centos" sheetId="12" r:id="rId13"/>
-    <sheet name="构建tomcat镜像" sheetId="13" r:id="rId14"/>
+    <sheet name="自定义centos" sheetId="12" r:id="rId13"/>
+    <sheet name="自定义tomcat镜像" sheetId="13" r:id="rId14"/>
     <sheet name="发布镜像" sheetId="14" r:id="rId15"/>
     <sheet name="Docker网络" sheetId="15" r:id="rId16"/>
     <sheet name="部署Redis集群" sheetId="16" r:id="rId17"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="355">
   <si>
     <t>Docker官网</t>
   </si>
@@ -421,8 +421,8 @@
   </si>
   <si>
     <t>docker images    获取删除需要的id或名称，推荐用id
-docker rmi -f {id}        删除指定容器
-docker rmi -f $(docker images -aq)  删除全部容器</t>
+docker rmi -f {id}        删除指定镜像
+docker rmi -f $(docker images -aq)  删除全部镜像</t>
   </si>
   <si>
     <t>Docker Hub账号</t>
@@ -580,7 +580,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-docker rm -f $(docker ps -aq)    删除所有的容器</t>
+docker rm -f $(docker ps -aq)    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强制删除所有的容器（正在运行也能删）</t>
     </r>
   </si>
   <si>
@@ -703,6 +713,9 @@
 rpm其实也是红帽公司开发的软件包管理工具</t>
   </si>
   <si>
+    <t>nginx负载均衡服务器</t>
+  </si>
+  <si>
     <t>搜索Nginx镜像</t>
   </si>
   <si>
@@ -737,6 +750,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>浏览器访问（</t>
     </r>
     <r>
@@ -841,7 +861,19 @@
     <t>官方使用，运行tomcat</t>
   </si>
   <si>
-    <t>docker run -it --rm tomcat:9.0       用完即刻删除，前期不建议</t>
+    <r>
+      <t xml:space="preserve">docker run -it --rm tomcat:9.0       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用完即刻删除，前期不建议</t>
+    </r>
   </si>
   <si>
     <t>没有看到tomcat</t>
@@ -901,14 +933,10 @@
     <t>http://39.108.174.145:3355</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>docker exec -it tomcat01 /bin/bash</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">cd webapps    </t>
     </r>
     <r>
@@ -947,8 +975,14 @@
   </si>
   <si>
     <t>cd ..
-cp -r webapps.dist/* webapps
--r是递归</t>
+cp -r webapps.dist/* webapps      -r是递归，*复制文件夹全部全部</t>
+  </si>
+  <si>
+    <t>退出容器
+下面是主机的命令</t>
+  </si>
+  <si>
+    <t>exit</t>
   </si>
   <si>
     <t>commit提交镜像
@@ -1412,7 +1446,7 @@
 touch draw</t>
   </si>
   <si>
-    <t>原来centos不能用vim和ifconfig
+    <t>原来centos容器不能用vim和ifconfig
 安装vim和net-tools就能用了</t>
   </si>
   <si>
@@ -1535,12 +1569,32 @@
     <t>构建时设置环境变量</t>
   </si>
   <si>
-    <t>cd /home
-touch readme.txt
+    <t>Dockerfile构建tomcat镜像</t>
+  </si>
+  <si>
+    <t>创建多级目录</t>
+  </si>
+  <si>
+    <t>mkdir -p /home/tomcat</t>
+  </si>
+  <si>
+    <t>切换目录
+xftp上传两个压缩包到该目录
+jdk-11_linux-x64_bin.tar.gz
+apache-tomcat-9.0.65.tar.gz</t>
+  </si>
+  <si>
+    <t>cd /home/tomcat</t>
+  </si>
+  <si>
+    <t>新建文件</t>
+  </si>
+  <si>
+    <t>touch readme.txt
 touch Dockerfile</t>
   </si>
   <si>
-    <t>两个压缩包、Dockerfile、readme.txt在同目录下</t>
+    <t>编写文件内容</t>
   </si>
   <si>
     <t>vim Dockerfile
@@ -1571,15 +1625,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">启动镜像
-</t>
+      <t>启动镜像</t>
     </r>
     <r>
       <rPr>
@@ -1589,25 +1635,26 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>有卷挂载和日志挂载</t>
-    </r>
-  </si>
-  <si>
-    <t>docker run -d -p 9090:8080 --name lulutomcat -v /home/test:/usr/local/apache-tomcat-9.0.65/webapps/test -v /home/tomcatlogs/:/usr/local/apache-tomcat-9.0.65/logs diytomcat</t>
-  </si>
-  <si>
-    <t>cd /home/test
+      <t xml:space="preserve">
+-v数据卷挂载：web部署目录、日志
+挂载时文件夹没有就会创建</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -d -p 9090:8080 --name lulutomcat -v /home/tomcat/html:/usr/local/apache-tomcat-9.0.65/webapps/ROOT -v /home/tomcat/logs/:/usr/local/apache-tomcat-9.0.65/logs diytomcat</t>
+  </si>
+  <si>
+    <t>cd /home/tomcat/html
 mkdir WEB-INF
-cd WEB-INF</t>
-  </si>
-  <si>
-    <t>百度搜索web.xml
-cd /home/test/WEB-INF
-touch web.xml
-vim web.xml</t>
-  </si>
-  <si>
-    <t>&lt;web-app xmlns="http://xmlns.jcp.org/xml/ns/javaee"
+cd /home/tomcat/html/WEB-INF</t>
+  </si>
+  <si>
+    <t>百度搜索web.xml</t>
+  </si>
+  <si>
+    <t>touch web.xml
+vim web.xml   --- 下面是内容
+&lt;web-app xmlns="http://xmlns.jcp.org/xml/ns/javaee"
          xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
          xsi:schemaLocation="http://xmlns.jcp.org/xml/ns/javaee
          http://xmlns.jcp.org/xml/ns/javaee/web-app_3_1.xsd"
@@ -1615,13 +1662,13 @@
 &lt;/web-app&gt;</t>
   </si>
   <si>
-    <t>百度搜索jsp
-cd /home/test/
+    <t>百度搜索jsp</t>
+  </si>
+  <si>
+    <t>cd /home/tomcat/html/
 touch index.jsp
-vim index.jsp</t>
-  </si>
-  <si>
-    <t>&lt;%@ page language="java" contentType="text/html; charset=UTF-8"
+vim index.jsp   --- 下面是内容
+&lt;%@ page language="java" contentType="text/html; charset=UTF-8"
     pageEncoding="UTF-8"%&gt;
 &lt;!DOCTYPE html&gt;
 &lt;html&gt;
@@ -1637,14 +1684,27 @@
 &lt;/html&gt;</t>
   </si>
   <si>
-    <t>百度搜索html
+    <r>
+      <t xml:space="preserve">百度搜索html
 jsp太老了，建议用html
-cd /home/test/
-touch ye.html
-vim ye.html</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问的是index名文件</t>
+    </r>
+  </si>
+  <si>
+    <t>cd /home/tomcat/html/
+touch index.html
+vim index.html   --- 下面是内容
+&lt;!DOCTYPE html&gt;
 &lt;html&gt;
 &lt;head&gt;
     &lt;meta charset="utf-8"&gt;
@@ -1661,14 +1721,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090
 </t>
     </r>
@@ -1685,39 +1737,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">http://39.108.174.145:9090/test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>访问主机挂载卷：cd /home/test
+    <t>http://39.108.174.145:9090/test
+访问主机挂载卷：cd /home/tomcat/html
 curl localhost:9090/test/   主机内运行测试</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">docker exec -it {id} /bin/bash
 cd /usr/local
 ls  </t>
@@ -2342,7 +2367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2352,6 +2377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,10 +2699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2680,16 +2711,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2701,10 +2732,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2725,28 +2756,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2755,19 +2786,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2779,38 +2807,41 @@
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2838,6 +2869,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2847,13 +2884,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -3825,7 +3862,7 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11" ht="100.8" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3956,7 +3993,7 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3971,7 +4008,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3979,7 +4016,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -3988,89 +4025,89 @@
       </c>
     </row>
     <row r="5" ht="115.2" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>155</v>
+      <c r="A5" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>161</v>
+      <c r="B8" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3"/>
     </row>
-    <row r="11" s="13" customFormat="1"/>
+    <row r="11" s="15" customFormat="1"/>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4086,7 +4123,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4097,47 +4134,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4147,36 +4184,36 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="9" t="s">
-        <v>190</v>
+      <c r="B13" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4210,49 +4247,49 @@
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>195</v>
+      <c r="A6" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4270,63 +4307,63 @@
   <dimension ref="A2:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="100.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" ht="172.8" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5"/>
-      <c r="B9" s="11" t="s">
-        <v>208</v>
+      <c r="B9" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4336,15 +4373,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -4354,112 +4391,112 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="12"/>
+      <c r="A18" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4478,126 +4515,152 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="150.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="43.2" spans="2:2">
-      <c r="B2" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" ht="360" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" ht="360" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" ht="43.2" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" ht="100.8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>246</v>
+    <row r="8" ht="43.2" spans="1:2">
+      <c r="A8" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" ht="201.6" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" ht="273.6" spans="1:2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" ht="129.6" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" ht="43.2" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" ht="43.2" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" ht="244.8" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" ht="316.8" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" ht="57.6" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" ht="43.2" spans="1:2">
-      <c r="A15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>256</v>
+      <c r="B16" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:2">
+      <c r="A17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="http://39.108.174.145:9090&#10;访问容器内：cd /usr/local/apache-tomcat-9.0.65/webapps/test&#10;curl localhost:9090     主机内运行测试(别在容器里，可以新开终端)" tooltip="http://39.108.174.145:9090"/>
-    <hyperlink ref="B12" r:id="rId2" display="http://39.108.174.145:9090/test&#10;访问主机挂载卷：cd /home/test&#10;curl localhost:9090/test/   主机内运行测试"/>
+    <hyperlink ref="B13" r:id="rId1" display="http://39.108.174.145:9090&#10;访问容器内：cd /usr/local/apache-tomcat-9.0.65/webapps/test&#10;curl localhost:9090     主机内运行测试(别在容器里，可以新开终端)" tooltip="http://39.108.174.145:9090"/>
+    <hyperlink ref="B14" r:id="rId2" display="http://39.108.174.145:9090/test&#10;访问主机挂载卷：cd /home/tomcat/html&#10;curl localhost:9090/test/   主机内运行测试"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4609,7 +4672,7 @@
   <sheetPr/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4621,26 +4684,26 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -4650,37 +4713,37 @@
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4762,7 @@
   <sheetPr/>
   <dimension ref="A2:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -4711,15 +4774,15 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -4727,177 +4790,177 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +4977,7 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4926,101 +4989,101 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" ht="230.4" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:2">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5046,47 +5109,47 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -5096,36 +5159,36 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5146,8 +5209,8 @@
   <sheetPr/>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5235,7 +5298,7 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5270,7 +5333,7 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5300,7 +5363,7 @@
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5308,7 +5371,7 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5324,7 +5387,7 @@
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5471,10 +5534,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5483,25 +5546,31 @@
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -5509,10 +5578,10 @@
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5520,23 +5589,23 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5548,44 +5617,44 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>114</v>
+      <c r="A15" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5593,13 +5662,16 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="http://39.108.174.145:3344" tooltip="http://39.108.174.145:3344"/>
     <hyperlink ref="B17" r:id="rId2" display="http://39.108.174.145:7777"/>
@@ -5614,8 +5686,8 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5625,39 +5697,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="A2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
         <v>120</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="14"/>
+      <c r="A5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5670,18 +5742,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>129</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5689,33 +5761,41 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" ht="43.2" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -5723,12 +5803,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5761,31 +5846,31 @@
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5811,35 +5896,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5871,21 +5956,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>150</v>
+      <c r="A3" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="9" t="s">
-        <v>152</v>
+      <c r="B4" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Docker.xlsx
+++ b/java/Linux/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="Docker网络" sheetId="15" r:id="rId16"/>
     <sheet name="部署Redis集群" sheetId="16" r:id="rId17"/>
     <sheet name="SpringBoot打包镜像" sheetId="18" r:id="rId18"/>
+    <sheet name="Vue打包镜像" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="362">
   <si>
     <t>Docker官网</t>
   </si>
@@ -558,6 +559,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">docker ps -a    获取下面需要的id
 docker rm 名字或{id}   删除指定的容器  </t>
     </r>
@@ -794,6 +802,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>前端vue项目打包存放目录</t>
     </r>
     <r>
@@ -862,6 +877,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">docker run -it --rm tomcat:9.0       </t>
     </r>
     <r>
@@ -937,6 +959,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cd webapps    </t>
     </r>
     <r>
@@ -1625,6 +1654,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>启动镜像</t>
     </r>
     <r>
@@ -1685,6 +1721,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">百度搜索html
 jsp太老了，建议用html
 </t>
@@ -1721,6 +1764,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090
 </t>
     </r>
@@ -1743,6 +1794,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">docker exec -it {id} /bin/bash
 cd /usr/local
 ls  </t>
@@ -2182,6 +2240,80 @@
   <si>
     <t>交付给客户的是镜像</t>
   </si>
+  <si>
+    <t>mkdir -p /home/jeecgboot-vue3</t>
+  </si>
+  <si>
+    <r>
+      <t>切换目录
+xftp上传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vue打包的dist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到该目录</t>
+    </r>
+  </si>
+  <si>
+    <t>cd /home/jeecgboot-vue3</t>
+  </si>
+  <si>
+    <t>vim Dockerfile
+输入脚本
+FROM nginx
+MAINTAINER jeecgos@163.com
+VOLUME /tmp
+ENV LANG en_US.UTF-8
+RUN echo "server {  \
+                      listen       80; \
+                      location   /jeecgboot { \
+                      proxy_pass              http://jeecg-boot-system:8080/jeecg-boot; \
+                      proxy_redirect          off; \
+                      proxy_set_header        Host jeecg-boot-system; \
+                      proxy_set_header        X-Real-IP \$remote_addr; \
+                      proxy_set_header        X-Forwarded-For \$proxy_add_x_forwarded_for; \
+                  } \
+                  #解决Router(mode: 'history')模式下，刷新路由地址不能找到页面的问题 \
+                  location / { \
+                     root   /var/www/html/; \
+                      index  index.html index.htm; \
+                      if (!-e \$request_filename) { \
+                          rewrite ^(.*)\$ /index.html?s=\$1 last; \
+                          break; \
+                      } \
+                  } \
+                  access_log  /var/log/nginx/access.log ; \
+              } " &gt; /etc/nginx/conf.d/default.conf \
+    &amp;&amp;  mkdir  -p  /var/www \
+    &amp;&amp;  mkdir -p /var/www/html
+ADD dist/ /var/www/html/
+EXPOSE 80
+EXPOSE 443</t>
+  </si>
+  <si>
+    <t>docker build -t jeecgboot-vue3 .</t>
+  </si>
+  <si>
+    <t>docker run --name jeecgboot-vue3-nginx -p 80:80 -d jeecgboot-vue3</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:80</t>
+  </si>
 </sst>
 </file>
 
@@ -2193,9 +2325,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2699,10 +2838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2711,34 +2850,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2750,111 +2886,120 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2863,7 +3008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2872,16 +3017,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2893,7 +3035,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3810,15 +3952,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3826,54 +3968,54 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" ht="100.8" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="115.2" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3886,24 +4028,24 @@
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3916,7 +4058,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -3940,7 +4082,7 @@
       </c>
     </row>
     <row r="21" ht="57.6" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
@@ -3956,10 +4098,10 @@
       </c>
     </row>
     <row r="23" ht="72" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3967,7 +4109,7 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3993,7 +4135,7 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4025,10 +4167,10 @@
       </c>
     </row>
     <row r="5" ht="115.2" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4052,24 +4194,24 @@
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="11" s="15" customFormat="1"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="11" s="16" customFormat="1"/>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4085,7 +4227,7 @@
       <c r="A15" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4098,15 +4240,15 @@
       <c r="A17" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4122,7 +4264,7 @@
   <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4133,10 +4275,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -4152,15 +4294,15 @@
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4170,10 +4312,10 @@
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4194,7 +4336,7 @@
       <c r="A10" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4212,7 +4354,7 @@
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4249,7 +4391,7 @@
       <c r="A3" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4264,10 +4406,10 @@
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4277,10 +4419,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
@@ -4306,8 +4448,8 @@
   <sheetPr/>
   <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4327,20 +4469,20 @@
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" ht="172.8" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4353,16 +4495,16 @@
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="14" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4380,7 +4522,7 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4398,10 +4540,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -4517,8 +4659,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4528,10 +4670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -4542,7 +4684,7 @@
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B3" t="s">
@@ -4553,20 +4695,20 @@
       <c r="A4" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="5" ht="360" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>251</v>
       </c>
       <c r="B6" t="s">
@@ -4579,53 +4721,53 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="2:2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" ht="129.6" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="11" ht="244.8" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="12" ht="316.8" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="13" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4633,15 +4775,15 @@
       <c r="A15" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="16" ht="57.6" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4649,7 +4791,7 @@
       <c r="A17" t="s">
         <v>265</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4683,13 +4825,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4699,10 +4841,10 @@
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4715,7 +4857,7 @@
       <c r="A6" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4723,18 +4865,18 @@
       <c r="A7" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4781,7 +4923,7 @@
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B3" t="s">
@@ -4794,21 +4936,21 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>286</v>
       </c>
       <c r="B7" t="s">
@@ -4831,7 +4973,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>290</v>
       </c>
       <c r="B11" t="s">
@@ -4863,7 +5005,7 @@
       <c r="A16" t="s">
         <v>297</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4896,10 +5038,10 @@
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4914,7 +5056,7 @@
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B27" t="s">
@@ -4922,7 +5064,7 @@
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:2">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4943,7 +5085,7 @@
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B33" t="s">
@@ -5006,10 +5148,10 @@
       </c>
     </row>
     <row r="5" ht="230.4" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5017,7 +5159,7 @@
       <c r="A6" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5025,7 +5167,7 @@
       <c r="A7" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5035,15 +5177,15 @@
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5064,7 +5206,7 @@
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B13" t="s">
@@ -5082,7 +5224,7 @@
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5098,7 +5240,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5108,16 +5250,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5137,10 +5279,10 @@
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5166,7 +5308,7 @@
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5182,12 +5324,12 @@
       <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5198,6 +5340,83 @@
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" display="http://39.108.174.145:9091" tooltip="http://39.108.174.145:9091"/>
     <hyperlink ref="B2" r:id="rId2" display="https://blog.csdn.net/gaogaosen/article/details/125908777"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" ht="345.6" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="http://39.108.174.145:80"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5239,12 +5458,12 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -5258,7 +5477,7 @@
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5266,7 +5485,7 @@
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5298,7 +5517,7 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5306,15 +5525,15 @@
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" ht="57.6" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5360,10 +5579,10 @@
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5371,7 +5590,7 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5379,7 +5598,7 @@
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5387,7 +5606,7 @@
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5395,7 +5614,7 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5403,7 +5622,7 @@
       <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5411,7 +5630,7 @@
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5419,15 +5638,15 @@
       <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" ht="100.8" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5454,10 +5673,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -5473,7 +5692,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
@@ -5500,7 +5719,7 @@
       <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5518,7 +5737,7 @@
       <c r="A14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5547,10 +5766,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -5580,7 +5799,7 @@
       <c r="A5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5601,16 +5820,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5629,7 +5848,7 @@
       <c r="A12" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5650,21 +5869,21 @@
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5686,7 +5905,7 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -5697,16 +5916,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5719,10 +5938,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
@@ -5749,10 +5968,10 @@
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5770,20 +5989,20 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B15" t="s">
@@ -5791,10 +6010,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5845,7 +6064,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B2" t="s">
@@ -5898,27 +6117,27 @@
       <c r="A2" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5955,21 +6174,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>156</v>
       </c>
     </row>

--- a/java/Linux/Docker.xlsx
+++ b/java/Linux/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="12" activeTab="18"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="363">
   <si>
     <t>Docker官网</t>
   </si>
@@ -635,27 +635,7 @@
 ps -ef</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">从容器内拷贝文件到主机
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>从主机拷贝文件到容器，用的是文件共享，后面有</t>
-    </r>
+    <t>从容器内拷贝文件到主机</t>
   </si>
   <si>
     <t>ls    查看当前主机目录下
@@ -667,6 +647,26 @@
 docker cp {id}:/home/test.java /home</t>
   </si>
   <si>
+    <r>
+      <t>从主机拷贝文件到容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：
+1.用的是映射路径实现文件共享，后面有
+2.cp复制</t>
+    </r>
+  </si>
+  <si>
+    <t>docker cp my.cnf {id}或{name}:/etc/mysql/my.cnf</t>
+  </si>
+  <si>
     <t>容器没有的命令</t>
   </si>
   <si>
@@ -829,9 +829,6 @@
   </si>
   <si>
     <t>mkdir -p /home/nginx/html /home/nginx/logs /home/nginx/conf</t>
-  </si>
-  <si>
-    <t>从容器内拷贝文件到主机</t>
   </si>
   <si>
     <t>docker cp {id}:/etc/nginx/nginx.conf /home/nginx/conf</t>
@@ -2245,6 +2242,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>切换目录
 xftp上传</t>
     </r>
@@ -2325,7 +2329,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2496,13 +2500,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2980,7 +2977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3017,9 +3014,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3037,6 +3031,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4004,7 +4004,7 @@
       <c r="B10" s="3"/>
     </row>
     <row r="11" ht="100.8" spans="1:2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -4150,7 +4150,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -4167,89 +4167,89 @@
       </c>
     </row>
     <row r="5" ht="115.2" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>159</v>
+      <c r="A5" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>165</v>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5"/>
     </row>
-    <row r="11" s="16" customFormat="1"/>
+    <row r="11" s="15" customFormat="1"/>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4276,47 +4276,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4326,36 +4326,36 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="12" t="s">
-        <v>194</v>
+      <c r="B13" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4389,49 +4389,49 @@
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4460,52 +4460,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" ht="172.8" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
-        <v>212</v>
+      <c r="B9" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4515,130 +4515,130 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="15"/>
+      <c r="A18" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4671,48 +4671,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" ht="360" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -4721,78 +4721,78 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:2">
-      <c r="A8" s="12" t="s">
-        <v>253</v>
+      <c r="A8" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" ht="129.6" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" ht="244.8" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" ht="316.8" spans="1:2">
-      <c r="A12" s="12" t="s">
-        <v>260</v>
+      <c r="A12" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>262</v>
+        <v>118</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:2">
       <c r="A14" s="7"/>
-      <c r="B14" s="13" t="s">
-        <v>263</v>
+      <c r="B14" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" ht="57.6" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>264</v>
+      <c r="B16" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4826,26 +4826,26 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -4855,37 +4855,37 @@
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4916,193 +4916,193 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5131,101 +5131,101 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" ht="230.4" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:2">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5251,47 +5251,47 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -5301,36 +5301,36 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5351,7 @@
   <sheetPr/>
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -5363,55 +5363,55 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" ht="345.6" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5517,7 +5517,7 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5550,15 +5550,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5582,7 +5582,7 @@
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5648,6 +5648,14 @@
       </c>
       <c r="B12" s="5" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:2">
+      <c r="A13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5674,71 +5682,71 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5767,29 +5775,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -5797,10 +5805,10 @@
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5808,23 +5816,23 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5836,44 +5844,44 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="12" t="s">
-        <v>115</v>
+      <c r="A15" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5881,10 +5889,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5916,39 +5924,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5961,18 +5969,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
-      <c r="A9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5980,41 +5988,41 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="12" t="s">
-        <v>133</v>
+      <c r="A14" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -6024,15 +6032,15 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6065,31 +6073,31 @@
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6115,35 +6123,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6175,21 +6183,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>154</v>
+      <c r="A3" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="12" t="s">
-        <v>156</v>
+      <c r="B4" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Docker.xlsx
+++ b/java/Linux/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="自定义centos" sheetId="12" r:id="rId13"/>
     <sheet name="自定义tomcat镜像" sheetId="13" r:id="rId14"/>
     <sheet name="发布镜像" sheetId="14" r:id="rId15"/>
-    <sheet name="Docker网络" sheetId="15" r:id="rId16"/>
+    <sheet name="容器间通信" sheetId="15" r:id="rId16"/>
     <sheet name="部署Redis集群" sheetId="16" r:id="rId17"/>
     <sheet name="SpringBoot打包镜像" sheetId="18" r:id="rId18"/>
     <sheet name="Vue打包镜像" sheetId="19" r:id="rId19"/>
@@ -32,7 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="388">
+  <si>
+    <t>菜鸟教程</t>
+  </si>
+  <si>
+    <t>https://www.runoob.com/docker/docker-tutorial.html</t>
+  </si>
   <si>
     <t>Docker官网</t>
   </si>
@@ -648,6 +654,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从主机拷贝文件到容器</t>
     </r>
     <r>
@@ -665,6 +678,57 @@
   </si>
   <si>
     <t>docker cp my.cnf {id}或{name}:/etc/mysql/my.cnf</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>指令 --name</t>
+  </si>
+  <si>
+    <t>指定容器名</t>
+  </si>
+  <si>
+    <t>指令 -p</t>
+  </si>
+  <si>
+    <t>端口映射 大写P是随机端口  连接要用映射端口</t>
+  </si>
+  <si>
+    <t>指令 -e</t>
+  </si>
+  <si>
+    <t>参数配置</t>
+  </si>
+  <si>
+    <t>指令 -d</t>
+  </si>
+  <si>
+    <t>后台运行</t>
+  </si>
+  <si>
+    <t>指令 -v</t>
+  </si>
+  <si>
+    <t>数据卷挂载</t>
+  </si>
+  <si>
+    <t>指令 \</t>
+  </si>
+  <si>
+    <t>换行</t>
+  </si>
+  <si>
+    <t>指令 -t</t>
+  </si>
+  <si>
+    <t>生成</t>
+  </si>
+  <si>
+    <t>指令 -f</t>
+  </si>
+  <si>
+    <t>地址路径</t>
   </si>
   <si>
     <t>容器没有的命令</t>
@@ -742,10 +806,7 @@
     <t>启动nginx</t>
   </si>
   <si>
-    <t>docker run -d --name nginx01 -p 3344:80 nginx
--d后台运行
---name nginx01  起个名字
--p 3344:80 改动端口为3344</t>
+    <t>docker run -d --name nginx01 -p 3344:80 nginx</t>
   </si>
   <si>
     <t>docker ps</t>
@@ -835,13 +896,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">启动nginx
 -v 数据卷挂载
 </t>
@@ -858,7 +912,10 @@
     </r>
   </si>
   <si>
-    <t>docker run -d -p 7777:80 --name nginx-web -v /home/nginx/html:/usr/share/nginx/html -v /home/nginx/conf/nginx.conf:/etc/nginx/nginx.conf -v /home/nginx/logs:/var/log/nginx nginx</t>
+    <t>docker run -d -p 7777:80 --name nginx-web 
+-v /home/nginx/html:/usr/share/nginx/html 
+-v /home/nginx/conf/nginx.conf:/etc/nginx/nginx.conf 
+-v /home/nginx/logs:/var/log/nginx nginx</t>
   </si>
   <si>
     <t>浏览器访问（主机用的是公网IP）</t>
@@ -1026,8 +1083,7 @@
   </si>
   <si>
     <t>启动elasticsearch
-会卡,耗内存，停掉别的容器
-运行已存在，改个--name **就行</t>
+会卡,耗内存，停掉别的容器</t>
   </si>
   <si>
     <t>docker run -d --name elasticsearch04 -p 9200:9200 -p 9300:9300 -e "discovery.type=single-node" elasticsearch:7.6.2</t>
@@ -1070,13 +1126,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">新建容器，映射共享
 </t>
     </r>
@@ -1099,13 +1148,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">exit 退出容器  </t>
     </r>
     <r>
@@ -1128,8 +1170,7 @@
       </rPr>
       <t xml:space="preserve">
 docker ps
-docker inspect {id}
-看Mounts卷挂载的路径
+docker inspect {id}    看Mounts卷挂载的路径
 cd /home/ceshi      同步了，这个目录也看到了新建的文件
 vim fr    修改后，容器了也同步了，</t>
     </r>
@@ -1152,6 +1193,20 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">创建并运行容器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接要用映射端口</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1159,32 +1214,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">运行
--d 后台运行
--p 端口映射 大写P是随机端口  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>连接要用映射端口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
--v 数据卷挂载
--e 环境配置，这里配置密码
---name 容器名字
 Linux是远程，</t>
     </r>
     <r>
@@ -1200,7 +1230,11 @@
     </r>
   </si>
   <si>
-    <t>docker run -d -p 3310:3306 -v /home/mysql/conf:/etc/mysql/conf.d -v /home/mysql/data:/var/lib/mysql -e MYSQL_ROOT_PASSWORD=123456 --name mysql01 mysql:5.7</t>
+    <t>docker run -d -p 3310:3306 
+-v /home/mysql/conf:/etc/mysql/conf.d 
+-v /home/mysql/data:/var/lib/mysql 
+-e MYSQL_ROOT_PASSWORD=123456 
+--name mysql01 mysql:5.7</t>
   </si>
   <si>
     <t>测试</t>
@@ -1241,8 +1275,7 @@
     <t>匿名挂载</t>
   </si>
   <si>
-    <t>docker run -d -P --name nginx06 -v /etc/nginx nginx
--P 大写P,是随机端口</t>
+    <t>docker run -d -P --name nginx06 -v /etc/nginx nginx</t>
   </si>
   <si>
     <t>查看所有卷的情况</t>
@@ -1309,13 +1342,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>构建自己的镜像</t>
     </r>
     <r>
@@ -1332,9 +1358,7 @@
   </si>
   <si>
     <t>cd /home
-docker build -f /home/dockerfile/sky -t dockerfile/centos:26.0 .
--f 地址路径
--t 生成</t>
+docker build -f /home/dockerfile/sky -t custom-centos .</t>
   </si>
   <si>
     <t>启动容器</t>
@@ -1389,7 +1413,7 @@
     <t>启动容器1</t>
   </si>
   <si>
-    <t>docker run -it --name docker03 dockerfile/centos:26.0
+    <t>docker run -it --name docker03 custom-centos
 用的是方式3</t>
   </si>
   <si>
@@ -1419,41 +1443,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新开终端
+    <t>新开终端
 cd /home
-docker run -it --name docker04 --volumes-from docker03 dockerfile/centos:26.0
+docker run -it --name docker04 --volumes-from docker03 custom-centos
 cd volume01
 touch h1
-ls    有h1文件了    去容器1 cd volume01 ls 也看到h1文件了   说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>容器同步</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了</t>
-    </r>
+ls    有h1文件了    去容器1 cd volume01 ls 也看到h1文件了   说明容器同步了</t>
   </si>
   <si>
     <t>删除docker03容器，docker04数据还在</t>
@@ -1674,7 +1669,10 @@
     </r>
   </si>
   <si>
-    <t>docker run -d -p 9090:8080 --name lulutomcat -v /home/tomcat/html:/usr/local/apache-tomcat-9.0.65/webapps/ROOT -v /home/tomcat/logs/:/usr/local/apache-tomcat-9.0.65/logs diytomcat</t>
+    <t>docker run -d -p 9090:8080 --name lulutomcat 
+-v /home/tomcat/html:/usr/local/apache-tomcat-9.0.65/webapps/ROOT 
+-v /home/tomcat/logs/:/usr/local/apache-tomcat-9.0.65/logs 
+diytomcat</t>
   </si>
   <si>
     <t>cd /home/tomcat/html
@@ -1976,13 +1974,16 @@
     <t>容器删了，网卡，网桥就没了</t>
   </si>
   <si>
-    <t>ping不同</t>
+    <t>ping不通</t>
   </si>
   <si>
     <t>docker exec -it tomcat05 ping tomcat07</t>
   </si>
   <si>
-    <t>容器互联</t>
+    <t>容器间通信方式1：容器互联</t>
+  </si>
+  <si>
+    <t>link容器互联</t>
   </si>
   <si>
     <r>
@@ -2035,7 +2036,10 @@
     <t>docker exec -it tomcat07 cat /etc/hosts</t>
   </si>
   <si>
-    <t>自定义网络
+    <t>容器间通信方式2：桥接网络</t>
+  </si>
+  <si>
+    <t>创建网络
 --subnet子网
 --gateway网关</t>
   </si>
@@ -2075,6 +2079,9 @@
   </si>
   <si>
     <t>docker network connect mynet tomcat05</t>
+  </si>
+  <si>
+    <t>查看网络连接</t>
   </si>
   <si>
     <t>ping通了</t>
@@ -2238,7 +2245,13 @@
     <t>交付给客户的是镜像</t>
   </si>
   <si>
-    <t>mkdir -p /home/jeecgboot-vue3</t>
+    <t>vue前端项目打包成Docker镜像并运行的实现</t>
+  </si>
+  <si>
+    <t>https://www.jb51.net/article/258626.htm</t>
+  </si>
+  <si>
+    <t>mkdir -p /home/news-vue2</t>
   </si>
   <si>
     <r>
@@ -2274,49 +2287,22 @@
     </r>
   </si>
   <si>
-    <t>cd /home/jeecgboot-vue3</t>
-  </si>
-  <si>
-    <t>vim Dockerfile
-输入脚本
-FROM nginx
-MAINTAINER jeecgos@163.com
-VOLUME /tmp
-ENV LANG en_US.UTF-8
-RUN echo "server {  \
-                      listen       80; \
-                      location   /jeecgboot { \
-                      proxy_pass              http://jeecg-boot-system:8080/jeecg-boot; \
-                      proxy_redirect          off; \
-                      proxy_set_header        Host jeecg-boot-system; \
-                      proxy_set_header        X-Real-IP \$remote_addr; \
-                      proxy_set_header        X-Forwarded-For \$proxy_add_x_forwarded_for; \
-                  } \
-                  #解决Router(mode: 'history')模式下，刷新路由地址不能找到页面的问题 \
-                  location / { \
-                     root   /var/www/html/; \
-                      index  index.html index.htm; \
-                      if (!-e \$request_filename) { \
-                          rewrite ^(.*)\$ /index.html?s=\$1 last; \
-                          break; \
-                      } \
-                  } \
-                  access_log  /var/log/nginx/access.log ; \
-              } " &gt; /etc/nginx/conf.d/default.conf \
-    &amp;&amp;  mkdir  -p  /var/www \
-    &amp;&amp;  mkdir -p /var/www/html
-ADD dist/ /var/www/html/
-EXPOSE 80
-EXPOSE 443</t>
-  </si>
-  <si>
-    <t>docker build -t jeecgboot-vue3 .</t>
-  </si>
-  <si>
-    <t>docker run --name jeecgboot-vue3-nginx -p 80:80 -d jeecgboot-vue3</t>
-  </si>
-  <si>
-    <t>http://39.108.174.145:80</t>
+    <t>cd /home/news-vue</t>
+  </si>
+  <si>
+    <t>Dockerfile内容</t>
+  </si>
+  <si>
+    <t>看news项目的docker文件夹</t>
+  </si>
+  <si>
+    <t>docker build -t news-vue2 .</t>
+  </si>
+  <si>
+    <t>docker run --name news-vue2.0 -p 2021:2021 -d news-vue2</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:2021</t>
   </si>
 </sst>
 </file>
@@ -2329,16 +2315,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2503,12 +2482,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2835,10 +2820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2847,31 +2832,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2883,111 +2871,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2996,16 +2981,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3014,29 +2996,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3108,13 +3087,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>895985</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3132,7 +3111,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="10980420"/>
+          <a:off x="7620" y="11163300"/>
           <a:ext cx="3684905" cy="1768475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3146,13 +3125,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2872740</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3170,7 +3149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3741420" y="11003280"/>
+          <a:off x="3741420" y="11186160"/>
           <a:ext cx="1927860" cy="1761490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3184,13 +3163,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1313815</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3208,7 +3187,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="754380"/>
+          <a:off x="38100" y="937260"/>
           <a:ext cx="1275715" cy="1044575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3222,13 +3201,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1432560</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>502285</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3246,7 +3225,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1432560" y="731520"/>
+          <a:off x="1432560" y="914400"/>
           <a:ext cx="1866265" cy="1023620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3271,7 +3250,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>443865</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3936,10 +3915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3952,113 +3931,113 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" ht="100.8" spans="1:2">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="115.2" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" ht="100.8" spans="1:2">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13" ht="115.2" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="16" ht="57.6" spans="1:2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -4066,7 +4045,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
@@ -4081,47 +4060,56 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" ht="57.6" spans="1:2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="22" ht="57.6" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="72" spans="1:2">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" ht="158.4" spans="1:2">
-      <c r="A24" t="s">
+    <row r="24" ht="72" spans="1:2">
+      <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="25" ht="158.4" spans="1:2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.docker.com"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://docs.docker.com/"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://hub.docker.com" tooltip="https://hub.docker.com"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://docs.docker.com/engine/install/centos/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.docker.com"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://docs.docker.com/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://hub.docker.com" tooltip="https://hub.docker.com"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://docs.docker.com/engine/install/centos/"/>
+    <hyperlink ref="B1" r:id="rId6" display="https://www.runoob.com/docker/docker-tutorial.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4135,8 +4123,8 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4147,109 +4135,109 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="115.2" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="72" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5"/>
     </row>
     <row r="11" s="15" customFormat="1"/>
-    <row r="12" ht="28.8" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4264,8 +4252,8 @@
   <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4276,86 +4264,86 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" ht="57.6" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>186</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>195</v>
+      <c r="B13" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4384,54 +4372,54 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>200</v>
+      <c r="A6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4448,8 +4436,8 @@
   <sheetPr/>
   <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4460,185 +4448,185 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" ht="172.8" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>211</v>
+      <c r="A8" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="13" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="14" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4659,8 +4647,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4671,128 +4659,128 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" ht="360" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" ht="129.6" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" ht="244.8" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" ht="316.8" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>261</v>
+      <c r="A12" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="7" t="s">
-        <v>118</v>
+      <c r="A13" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="12" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" ht="57.6" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>265</v>
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +4802,7 @@
   <sheetPr/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4826,66 +4814,66 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
-        <v>269</v>
+      <c r="B2" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="6" t="s">
-        <v>277</v>
+      <c r="B24" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4902,10 +4890,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B35"/>
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4916,197 +4904,214 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>285</v>
+      <c r="A5" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>287</v>
+      <c r="A7" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>291</v>
+      <c r="A11" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>298</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>300</v>
+      <c r="A16" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>304</v>
-      </c>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" ht="43.2" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>302</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" ht="43.2" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" ht="43.2" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>309</v>
-      </c>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" ht="28.8" spans="2:2">
-      <c r="B28" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>312</v>
-      </c>
-      <c r="B29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" ht="28.8" spans="1:2">
-      <c r="A33" s="5" t="s">
-        <v>316</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" ht="43.2" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="2:2">
+      <c r="B29" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>335</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>318</v>
+      <c r="A35" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5119,7 +5124,7 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -5131,101 +5136,101 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" ht="230.4" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" ht="158.4" spans="1:2">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5251,86 +5256,86 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>342</v>
+        <v>363</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>354</v>
+        <v>137</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="6" t="s">
-        <v>355</v>
+      <c r="B15" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -5349,10 +5354,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5361,62 +5366,77 @@
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>357</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>248</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" ht="345.6" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>359</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>348</v>
+      <c r="A6" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="http://39.108.174.145:80"/>
+    <hyperlink ref="B10" r:id="rId1" display="http://39.108.174.145:2021" tooltip="http://39.108.174.145:2021"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.jb51.net/article/258626.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5428,8 +5448,8 @@
   <sheetPr/>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5440,101 +5460,101 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:2">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="57.6" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>54</v>
+      <c r="A17" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5550,10 +5570,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5564,101 +5584,174 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:2">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:2">
       <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" ht="100.8" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>76</v>
+      <c r="A12" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>79</v>
+      <c r="A13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -5670,7 +5763,7 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
@@ -5682,71 +5775,71 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>84</v>
+      <c r="A5" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5764,7 +5857,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5775,124 +5868,124 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="57.6" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>108</v>
+      <c r="A8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>112</v>
+        <v>130</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>116</v>
+      <c r="A15" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +6007,7 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -5925,122 +6018,122 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>140</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>130</v>
+      <c r="A9" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8" t="s">
-        <v>133</v>
+      <c r="B13" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>134</v>
+      <c r="A14" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>140</v>
+      <c r="A19" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6062,7 +6155,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -6071,33 +6164,33 @@
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="43.2" spans="1:2">
+    <row r="2" ht="28.8" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>144</v>
+      <c r="A4" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6112,7 +6205,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -6123,35 +6216,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>149</v>
+      <c r="A3" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>151</v>
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6265,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -6183,21 +6276,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>155</v>
+      <c r="A3" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
